--- a/data_process/xlsx/jongno_C1_processed.xlsx
+++ b/data_process/xlsx/jongno_C1_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9870966</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5692897</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>126.9870878</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5696632</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.9867385</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5694522</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>127.0022798</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5822138</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>127.0037448</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5816335</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0081041</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5674846</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>126.9974355</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5837577</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9837199</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5773892</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>127.0111345</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5705155</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>127.010722</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5707291</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>126.9830775</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5598226</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>126.9981982</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5616103</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9981982</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5616103</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:19</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>127.0183705</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5659157</v>
       </c>
     </row>
   </sheetData>
